--- a/library_17.04.2020 (2).xlsx
+++ b/library_17.04.2020 (2).xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\влэд\source\repos\EsportMVC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\влэд\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E6768C-B319-442B-AAEC-33FD20409D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AEDEAD1-1AE3-4158-8CA9-7AF241BB0A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="1368" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1284" yWindow="1716" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Україна" sheetId="2" r:id="rId1"/>
     <sheet name="Лист1" sheetId="6" r:id="rId2"/>
-    <sheet name="Узбекистан" sheetId="3" r:id="rId3"/>
-    <sheet name="Ізраїль" sheetId="4" r:id="rId4"/>
-    <sheet name="Білорусь" sheetId="5" r:id="rId5"/>
+    <sheet name="Китай" sheetId="7" r:id="rId3"/>
+    <sheet name="Узбекистан" sheetId="3" r:id="rId4"/>
+    <sheet name="Ізраїль" sheetId="4" r:id="rId5"/>
+    <sheet name="Білорусь" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Назва</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>OldOrg1</t>
+  </si>
+  <si>
+    <t>11.11.0001</t>
   </si>
 </sst>
 </file>
@@ -401,7 +405,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D34BCE5-7E86-4A01-90D4-F1AF8AAA042A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -497,6 +501,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E99A7F-C027-4042-B75D-E602A4A1811E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>40179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -525,7 +579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -554,7 +608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
